--- a/my_results.xlsx
+++ b/my_results.xlsx
@@ -531,35 +531,31 @@
           <t>[83]</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>I can't find the takeoff Climb Limit Weight in the tables provided. The tables for takeoff performance list the *Field Limit Weight* based on corrected field length and OAT . While the table title is "Takeoff Field &amp; Climb Limit Weights," the specific value for the Climb Limit Weight for a given OAT is not shown. There is a table for *Landing* Climb Limit Weight, but that's for a different phase of flight .</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[82, 83, 100]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[82, 83, 100]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>20.59</v>
+        <v>22.52</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -593,7 +589,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>For a Flaps 15 takeoff, the first selection is Flaps 5, and you select it at V2 + 15. This is from the Takeoff Flap Retraction Speed Schedule .</t>
+          <t>After a Flaps 15 takeoff, the first selection is Flaps 5, and you make that selection at V2 + 15 .</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -619,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>8.35</v>
+        <v>29.29</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -653,7 +649,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>For a wet runway at 1,000 feet pressure altitude with a 1,600-meter wind-corrected field length, the Field Limit Weight is 55,800 kg .</t>
+          <t>For those conditions, the Field Limit Weight is 55,800 kg. This is found in the "Landing Field Limit Weight" table for Flaps 40, at the intersection of 1,600 M Wind Corrected Field Length and 1,000 FT Pressure Altitude for a wet runway .</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -679,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -713,7 +709,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Once a positive rate of climb is indicated, the Pilot Flying calls “GEAR UP”. The Pilot Not Flying then verifies the positive rate and positions the landing gear lever to the UP position .</t>
+          <t>When a positive rate of climb is indicated, call “GEAR UP”. The Pilot Not Flying then verifies the positive rate and positions the landing gear lever UP .</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -739,7 +735,7 @@
         <v>0.6667</v>
       </c>
       <c r="M5" t="n">
-        <v>8.07</v>
+        <v>9.57</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -773,7 +769,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>When the airplane is stationary, responsibility for the forward aisle stand is split. The Captain is responsible for the left side, and the First Officer is responsible for the right side .</t>
+          <t>When the airplane is not moving under its own power, responsibility for the forward aisle stand is split. The Captain is responsible for the left side and the First Officer is responsible for the right side .</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -799,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>11.24</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -836,7 +832,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Prior to turning base, you need to complete these three actions: * Gear down * Flaps 15 * Arm speedbrake</t>
+          <t>Prior to turning base in a visual traffic pattern, you need to complete these three actions: * Gear down * Flaps 15 * Arm speedbrake</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -862,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>14.04</v>
+        <v>13.21</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -896,7 +892,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>In flight, CDU entries are normally made by the pilot not flying (PNF). Before execution, the entries must be verified by the pilot flying (PF) .</t>
+          <t>In flight, CDU entries are normally accomplished by the pilot not flying (PNF) and must be verified by the pilot flying (PF) prior to execution .</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -922,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>8.449999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -956,7 +952,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>That illuminated amber STAIRS OPER light indicates the airstair is in transit .</t>
+          <t>That amber light indicates the airstair is in transit .</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -982,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>8.130000000000001</v>
+        <v>6.63</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1016,7 +1012,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The ISOLATION VALVE switch should be in AUTO .</t>
+          <t>The ISOLATION VALVE switch should be in the AUTO position .</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1042,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>6.91</v>
+        <v>6.58</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1080,7 +1076,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>During the descent and approach, the Pilot Not Flying will set the AUTO BRAKE select switch to the desired brake setting . During the landing roll, the Pilot Flying's action is to verify proper autobrake operation .</t>
+          <t>During the Descent and Approach procedure, you set the AUTO BRAKE select switch to the desired brake setting . During the Landing Roll, the Pilot Flying's action is to verify proper autobrake operation .</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1106,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>6.82</v>
+        <v>7.87</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1191,7 +1187,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>86.67%</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1199,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>93.33%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1211,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>95.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1232,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1250,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.17</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="13">
@@ -1265,7 +1261,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-11-12 00:01:46</t>
+          <t>2025-11-12 00:41:35</t>
         </is>
       </c>
     </row>
@@ -1559,17 +1555,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[82, 83, 100]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
